--- a/biology/Médecine/Inhibiteur_de_kinase/Inhibiteur_de_kinase.xlsx
+++ b/biology/Médecine/Inhibiteur_de_kinase/Inhibiteur_de_kinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs de kinases sont un groupe divers de composés chimiques dont la propriété principale est l’inhibition de certaines kinases. Ces composés sont généralement développés par l’industrie pharmaceutique comme candidats médicament. Ils ont une place prépondérante sur le marché du médicament d’une part, par leur importance thérapeutique pour le traitement de cancers (oncologie), d’autre part, par leur importance économique disproportionnée pour l’industrie pharmaceutique. En effet, ces médicaments sont souvent des blockbusters, générant des milliards d’euros de revenus de par leur vente.
 </t>
@@ -511,7 +523,9 @@
           <t>Nomenclature et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom donné aux inhibiteurs de kinases se termine souvent avec le suffixe -nib (provenant d’inhibiteur). Les inhibiteurs de kinase se fixant spécifiquement aux récepteur tyrosine kinase sont appelés tyrphostines.
 Le premier inhibiteur de kinase mis sur le marché fut l’Imatinib, commercialisé sous le nom Glivec, par Novartis.
@@ -543,7 +557,9 @@
           <t>Mode d’action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs de kinases bloquent l’activité des kinases en se liant de manière compétitive sur les sites de liaisons de l’ATP (inhibiteurs de type 1), soit sur les sites de liaisons de l’ATP et les poches hydrophobiques adjacentes (inhibiteurs de type 2). Du fait de la conservation des domaines kinases, les inhibiteurs sont souvent capables d’inhiber en général plusieurs membres d’une même famille de kinases.
 Les cellules cancéreuses ayant des profils mutationnels, une série de composés doit être développés ciblant préférentiellement différentes versions mutées de kinases émergent pendant l'évolution du cancer.
@@ -576,7 +592,9 @@
           <t>Cibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les kinases représentent plus de 500 gènes dans le génome humain, avec à la fois des enzymes cytoplasmiques comme les Protéine kinase et récepteurs membranaires comme les récepteurs à tyrosine kinase. Elles peuvent, en fonction des kinases, phosphoryler des proteines, des lipides et des sucres. Plus de 100 kinases n’ont cependant pas encore de fonction assignée. Les kinases ciblées par des médicaments ne sont cependant qu’autour de 50.
 Exemples de cibles:
@@ -612,7 +630,9 @@
           <t>Développement de nouveaux composés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les molécules candidates identifiées à la suite d'un criblage, sont testées par des tests quantitatifs d’activité d’inhibition de l’activité enzymatique (c'est-à-dire phosphorylation d’un substrat), de liaison à la kinase cible, et d’activité cellulaire (cascade de signalisation liée à une kinase).
 </t>
@@ -643,7 +663,9 @@
           <t>Importance commerciale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 2011 et 2015, la vente des médicaments de type inhibiteur de kinase est estimé à 240 milliards de dollars.
 </t>
@@ -675,6 +697,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
